--- a/artifacts/case_matching.xlsx
+++ b/artifacts/case_matching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUAN\Desktop\lbp_mri\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB497E5E-F456-4AA7-AA11-23165C763E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E2589-4036-4456-B5A8-26378DE83778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B71A28A0-443F-4492-8A9A-EA5AEB45C843}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
